--- a/Netbeans/ANA-ADDIX/output/data_storge/ainow.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storge/ainow.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\Sources\11. ChangeCodeANA\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storge\"/>
     </mc:Choice>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="1003">
   <si>
     <t>Url</t>
   </si>
@@ -2926,12 +2926,133 @@
   </si>
   <si>
     <t>https://ainow.ai/2019/10/23/180121/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/25/181157/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/20/181109/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/20/181105/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/20/181096/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/20/180352/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/19/180997/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/19/180379/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/18/180975/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/18/180958/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/18/180961/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/18/180936/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/18/180949/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/14/180803/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/14/180805/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/14/180757/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/14/180721/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/13/180796/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/13/180323/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/12/180479/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/11/09/180524/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/09/30/175475/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/06/13/172100/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/06/09/171839/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/06/07/171703/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/06/04/171382/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/05/30/170999/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/05/29/170919/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/05/29/170915/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/05/29/170910/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/05/24/170530/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/05/22/170362/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/05/20/170150/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/05/20/170141/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/05/16/169893/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/05/15/169799/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/05/15/169797/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/05/15/169796/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/05/12/169562/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/05/08/169194/</t>
+  </si>
+  <si>
+    <t>https://ainow.ai/2019/04/27/168687/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3331,7 +3452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
@@ -3339,7 +3460,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3450,6 +3571,106 @@
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>982</v>
       </c>
     </row>
   </sheetData>
@@ -3468,7 +3689,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3976,7 +4197,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -4819,7 +5040,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -5262,7 +5483,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -5805,7 +6026,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -6093,7 +6314,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -6679,7 +6900,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -6717,7 +6938,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -6943,7 +7164,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -6963,7 +7184,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
@@ -6971,7 +7192,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -7082,6 +7303,106 @@
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -7099,7 +7420,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -7177,7 +7498,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -7475,7 +7796,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -8543,7 +8864,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -8826,7 +9147,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -9222,7 +9543,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -9250,7 +9571,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">

--- a/Netbeans/ANA-ADDIX/output/data_storge/ainow.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storge/ainow.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="2062">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="2592">
   <x:si>
     <x:t>Url</x:t>
   </x:si>
@@ -6222,6 +6222,1596 @@
   </x:si>
   <x:si>
     <x:t>https://ainow.ai/2017/01/12/107044/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/28/181165/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/28/181212/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/27/180331/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/26/181239/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/25/181157/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/20/181109/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/20/181105/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/20/181096/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/20/180352/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/19/180997/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/19/180379/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/18/180975/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/18/180958/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/18/180961/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/18/180936/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/18/180949/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/15/180895/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/15/180675/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/14/180803/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/14/180805/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/28/181165/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/28/181212/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/27/180331/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/26/181239/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/25/181157/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/20/181109/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/20/181105/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/20/181096/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/20/180352/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/19/180997/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/19/180379/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/18/180975/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/18/180958/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/18/180961/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/18/180936/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/18/180949/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/15/180895/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/15/180675/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/14/180803/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/14/180805/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/13/172100/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/09/171839/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/07/171703/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/04/171382/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/30/170999/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/29/170919/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/29/170915/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/29/170910/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/24/170530/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/22/170362/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/20/170150/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/20/170141/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/16/169893/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/15/169799/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/15/169797/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/15/169796/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/12/169562/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/08/169194/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/27/168687/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/13/172100/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/09/171839/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/07/171703/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/04/171382/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/30/170999/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/29/170919/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/29/170915/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/29/170910/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/24/170530/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/22/170362/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/20/170150/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/20/170141/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/16/169893/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/15/169799/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/15/169797/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/15/169796/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/12/169562/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/08/169194/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/27/168687/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/08/07/119630/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/08/31/145040/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/04/26/8102/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/08/07/119630/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/08/31/145040/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/04/26/8102/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/28/170762/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/13/169659/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/12/169558/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/02/168903/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/03/164959/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/12/21/159055/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/12/11/158374/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/30/155045/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/12/150804/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/09/21/151392/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/09/20/151271/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/09/17/149993/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/05/08/138018/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/04/17/137007/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/04/09/136559/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/03/13/135182/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/03/04/134610/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/02/14/133476/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/01/15/131295/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/28/170762/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/13/169659/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/12/169558/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/02/168903/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/03/164959/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/12/21/159055/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/12/11/158374/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/30/155045/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/12/150804/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/09/21/151392/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/09/20/151271/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/09/17/149993/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/05/08/138018/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/04/17/137007/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/04/09/136559/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/03/13/135182/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/03/04/134610/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/02/14/133476/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/01/15/131295/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/28/181305/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/28/181301/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/28/181297/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/16/172318/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/13/172094/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/12/170682/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/09/171840/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/08/171798/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/07/171620/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/05/171505/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/04/171389/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/03/171164/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/03/171162/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/31/171016/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/30/171007/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/29/170780/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/26/170583/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/23/170392/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/22/170360/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/13/169577/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/28/181305/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/28/181301/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/28/181297/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/16/172318/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/13/172094/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/12/170682/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/09/171840/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/08/171798/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/07/171620/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/05/171505/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/04/171389/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/03/171164/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/03/171162/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/31/171016/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/30/171007/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/29/170780/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/26/170583/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/23/170392/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/22/170360/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/13/169577/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/04/171389/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/19/163875/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/12/06/158054/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/01/150409/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/09/04/146091/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/09/02/145766/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/06/28/141955/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/06/04/140033/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/12/26/130380/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/08/02/119347/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/07/19/118152/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/09/16/102026/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/07/25/77730/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/10/09/179498/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/08/20/174323/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/25/167526/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/01/21/161306/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/01/14/160665/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/27/154305/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/04/171389/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/19/163875/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/12/06/158054/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/01/150409/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/09/04/146091/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/09/02/145766/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/06/28/141955/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/06/04/140033/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/12/26/130380/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/08/02/119347/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/07/19/118152/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/09/16/102026/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/07/25/77730/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/10/09/179498/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/08/20/174323/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/25/167526/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/01/21/161306/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/01/14/160665/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/27/154305/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/23/170452/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/13/169659/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/19/163875/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/28/157082/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/09/04/146091/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/06/28/141955/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/05/06/137884/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/10/24/124735/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/10/24/124715/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/10/24/124697/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/10/24/124696/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/10/24/124695/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/08/24/120788/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/07/19/118152/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/06/14/114719/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/01/07/106906/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/07/11/72430/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/07/05/71570/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/05/31/60006/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/23/170452/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/13/169659/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/19/163875/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/28/157082/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/09/04/146091/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/06/28/141955/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/05/06/137884/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/10/24/124735/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/10/24/124715/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/10/24/124697/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/10/24/124696/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/10/24/124695/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/08/24/120788/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/07/19/118152/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/06/14/114719/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/01/07/106906/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/07/11/72430/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/07/05/71570/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/05/31/60006/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/05/154099/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/04/19/137242/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/04/01/136152/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/11/21/127224/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/11/09/126244/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/10/23/124636/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/05/30/113423/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/04/26/8102/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/02/29/50698/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/02/171127/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/05/19/138700/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/12/17/129552/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/09/08/121703/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/03/29/110047/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/12/22/106300/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/10/14/103084/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/04/02/7253/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/05/154099/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/04/19/137242/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/04/01/136152/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/11/21/127224/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/11/09/126244/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/10/23/124636/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/05/30/113423/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/04/26/8102/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/02/29/50698/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/02/171127/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/05/19/138700/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/12/17/129552/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/09/08/121703/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/03/29/110047/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/12/22/106300/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/10/14/103084/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/04/02/7253/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/08/19/174839/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/06/171608/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/18/168118/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/15/167820/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/15/165706/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/12/165555/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/11/165427/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/15/163671/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/03/162637/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/01/162525/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/12/18/158779/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/20/156529/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/20/156513/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/20/156512/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/19/156336/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/09/155758/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/06/155475/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/26/153658/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/26/152448/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/08/19/174839/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/06/171608/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/18/168118/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/15/167820/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/15/165706/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/12/165555/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/11/165427/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/15/163671/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/03/162637/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/01/162525/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/12/18/158779/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/20/156529/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/20/156513/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/20/156512/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/19/156336/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/09/155758/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/06/155475/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/26/153658/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/26/152448/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/13/172095/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/05/171494/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/30/170998/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/29/170913/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/17/169989/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/17/169928/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/16/169885/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/14/169675/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/13/169647/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/07/169164/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/06/169055/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/21/168245/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/19/168191/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/19/168179/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/17/168066/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/17/168063/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/17/168061/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/17/168054/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/10/167566/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/13/172095/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/05/171494/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/30/170998/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/29/170913/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/17/169989/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/17/169928/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/16/169885/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/14/169675/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/13/169647/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/07/169164/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/06/169055/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/21/168245/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/19/168191/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/19/168179/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/17/168066/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/17/168063/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/17/168061/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/17/168054/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/10/167566/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/02/171131/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/29/170927/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/23/170466/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/09/169350/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/04/167019/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/17/165785/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/10/165411/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/10/165392/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/07/165266/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/03/164955/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/24/164227/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/01/01/159799/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/12/06/158018/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/12/05/157945/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/25/156789/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/24/152215/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/16/152925/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/04/153982/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/09/23/151487/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/02/171131/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/29/170927/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/23/170466/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/09/169350/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/04/167019/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/17/165785/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/10/165411/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/10/165392/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/07/165266/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/03/164955/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/24/164227/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/01/01/159799/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/12/06/158018/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/12/05/157945/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/25/156789/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/24/152215/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/16/152925/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/04/153982/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/09/23/151487/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/02/171150/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/02/171146/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/28/170725/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/14/169683/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/25/167526/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/19/168179/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/04/167047/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/29/166645/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/28/166580/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/27/166419/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/26/166364/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/26/166329/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/25/166247/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/14/165643/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/11/165451/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/10/165411/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/03/164955/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/25/164375/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/14/163592/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/02/171150/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/02/171146/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/28/170725/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/14/169683/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/25/167526/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/19/168179/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/04/167047/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/29/166645/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/28/166580/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/27/166419/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/26/166364/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/26/166329/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/25/166247/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/14/165643/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/11/165451/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/10/165411/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/03/164955/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/25/164375/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/14/163592/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/05/180267/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/25/168619/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/02/07/133105/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/01/10/106973/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/10/19/103251/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/07/24/77290/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/06/12/60572/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/04/03/58542/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/10/23/180121/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/03/171185/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/15/169755/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/15/169702/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/15/167907/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/04/167012/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/05/164980/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/12/03/157495/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/27/156972/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/29/153791/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/09/20/151213/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/11/05/180267/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/25/168619/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/02/07/133105/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/01/10/106973/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/10/19/103251/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/07/24/77290/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/06/12/60572/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/04/03/58542/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/10/23/180121/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/06/03/171185/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/15/169755/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/15/169702/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/15/167907/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/04/167012/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/05/164980/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/12/03/157495/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/27/156972/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/10/29/153791/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/09/20/151213/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/23/170454/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/21/170262/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/20/170151/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/12/169561/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/06/169056/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/19/168188/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/14/167755/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/10/167574/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/17/165762/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/06/165166/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/26/164436/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/24/164207/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/19/163875/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/01/28/161964/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/01/16/160846/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/01/15/160768/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/01/08/160263/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/01/06/159978/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/12/26/159405/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/23/170454/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/21/170262/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/20/170151/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/12/169561/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/05/06/169056/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/19/168188/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/14/167755/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/04/10/167574/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/17/165762/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/03/06/165166/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/26/164436/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/24/164207/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/02/19/163875/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/01/28/161964/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/01/16/160846/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/01/15/160768/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/01/08/160263/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2019/01/06/159978/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/12/26/159405/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/04/18/137137/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/11/21/104796/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/15/156103/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/07/12/142875/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/05/31/139021/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/04/15/136869/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/02/06/132699/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/12/08/128778/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/11/10/126315/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/09/21/122872/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/08/09/119703/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/08/03/119425/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/07/04/116645/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/06/25/115694/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/05/10/4292/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/04/18/137137/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/11/21/104796/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/11/15/156103/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/07/12/142875/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/05/31/139021/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/04/15/136869/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2018/02/06/132699/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/12/08/128778/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/11/10/126315/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/09/21/122872/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/08/09/119703/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/08/03/119425/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/07/04/116645/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2017/06/25/115694/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://ainow.ai/2016/05/10/4292/</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -6626,7 +8216,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A801"/>
+  <x:dimension ref="A1:A841"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
       <x:selection activeCell="A2" sqref="A2 A2:A2"/>
@@ -10640,6 +12230,206 @@
     <x:row r="801">
       <x:c r="A801" t="s">
         <x:v>1836</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="802">
+      <x:c r="A802" t="s">
+        <x:v>2062</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="803">
+      <x:c r="A803" t="s">
+        <x:v>2063</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="804">
+      <x:c r="A804" t="s">
+        <x:v>2064</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="805">
+      <x:c r="A805" t="s">
+        <x:v>2065</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="806">
+      <x:c r="A806" t="s">
+        <x:v>2066</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="807">
+      <x:c r="A807" t="s">
+        <x:v>2067</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="808">
+      <x:c r="A808" t="s">
+        <x:v>2068</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="809">
+      <x:c r="A809" t="s">
+        <x:v>2069</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="810">
+      <x:c r="A810" t="s">
+        <x:v>2070</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="811">
+      <x:c r="A811" t="s">
+        <x:v>2071</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="812">
+      <x:c r="A812" t="s">
+        <x:v>2072</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="813">
+      <x:c r="A813" t="s">
+        <x:v>2073</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="814">
+      <x:c r="A814" t="s">
+        <x:v>2074</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="815">
+      <x:c r="A815" t="s">
+        <x:v>2075</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="816">
+      <x:c r="A816" t="s">
+        <x:v>2076</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="817">
+      <x:c r="A817" t="s">
+        <x:v>2077</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="818">
+      <x:c r="A818" t="s">
+        <x:v>2078</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="819">
+      <x:c r="A819" t="s">
+        <x:v>2079</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="820">
+      <x:c r="A820" t="s">
+        <x:v>2080</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="821">
+      <x:c r="A821" t="s">
+        <x:v>2081</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="822">
+      <x:c r="A822" t="s">
+        <x:v>2082</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="823">
+      <x:c r="A823" t="s">
+        <x:v>2083</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="824">
+      <x:c r="A824" t="s">
+        <x:v>2084</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="825">
+      <x:c r="A825" t="s">
+        <x:v>2085</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="826">
+      <x:c r="A826" t="s">
+        <x:v>2086</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="827">
+      <x:c r="A827" t="s">
+        <x:v>2087</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="828">
+      <x:c r="A828" t="s">
+        <x:v>2088</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="829">
+      <x:c r="A829" t="s">
+        <x:v>2089</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="830">
+      <x:c r="A830" t="s">
+        <x:v>2090</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="831">
+      <x:c r="A831" t="s">
+        <x:v>2091</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="832">
+      <x:c r="A832" t="s">
+        <x:v>2092</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="833">
+      <x:c r="A833" t="s">
+        <x:v>2093</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="834">
+      <x:c r="A834" t="s">
+        <x:v>2094</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="835">
+      <x:c r="A835" t="s">
+        <x:v>2095</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="836">
+      <x:c r="A836" t="s">
+        <x:v>2096</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="837">
+      <x:c r="A837" t="s">
+        <x:v>2097</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="838">
+      <x:c r="A838" t="s">
+        <x:v>2098</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="839">
+      <x:c r="A839" t="s">
+        <x:v>2099</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="840">
+      <x:c r="A840" t="s">
+        <x:v>2100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="841">
+      <x:c r="A841" t="s">
+        <x:v>2101</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -10656,7 +12446,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A117"/>
+  <x:dimension ref="A1:A155"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -11250,6 +13040,196 @@
     <x:row r="117">
       <x:c r="A117" t="s">
         <x:v>1951</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118">
+      <x:c r="A118" t="s">
+        <x:v>2334</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119">
+      <x:c r="A119" t="s">
+        <x:v>2335</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120">
+      <x:c r="A120" t="s">
+        <x:v>2336</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121">
+      <x:c r="A121" t="s">
+        <x:v>2337</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122">
+      <x:c r="A122" t="s">
+        <x:v>2338</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123">
+      <x:c r="A123" t="s">
+        <x:v>2339</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124">
+      <x:c r="A124" t="s">
+        <x:v>2340</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125">
+      <x:c r="A125" t="s">
+        <x:v>2341</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126">
+      <x:c r="A126" t="s">
+        <x:v>2342</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127">
+      <x:c r="A127" t="s">
+        <x:v>2343</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128">
+      <x:c r="A128" t="s">
+        <x:v>2344</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129">
+      <x:c r="A129" t="s">
+        <x:v>2345</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130">
+      <x:c r="A130" t="s">
+        <x:v>2346</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131">
+      <x:c r="A131" t="s">
+        <x:v>2347</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132">
+      <x:c r="A132" t="s">
+        <x:v>2348</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133">
+      <x:c r="A133" t="s">
+        <x:v>2349</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134">
+      <x:c r="A134" t="s">
+        <x:v>2350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135">
+      <x:c r="A135" t="s">
+        <x:v>2351</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136">
+      <x:c r="A136" t="s">
+        <x:v>2352</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137">
+      <x:c r="A137" t="s">
+        <x:v>2353</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138">
+      <x:c r="A138" t="s">
+        <x:v>2354</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139">
+      <x:c r="A139" t="s">
+        <x:v>2355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140">
+      <x:c r="A140" t="s">
+        <x:v>2356</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141">
+      <x:c r="A141" t="s">
+        <x:v>2357</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142">
+      <x:c r="A142" t="s">
+        <x:v>2358</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143">
+      <x:c r="A143" t="s">
+        <x:v>2359</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144">
+      <x:c r="A144" t="s">
+        <x:v>2360</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145">
+      <x:c r="A145" t="s">
+        <x:v>2361</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146">
+      <x:c r="A146" t="s">
+        <x:v>2362</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147">
+      <x:c r="A147" t="s">
+        <x:v>2363</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148">
+      <x:c r="A148" t="s">
+        <x:v>2364</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149">
+      <x:c r="A149" t="s">
+        <x:v>2365</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150">
+      <x:c r="A150" t="s">
+        <x:v>2366</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151">
+      <x:c r="A151" t="s">
+        <x:v>2367</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152">
+      <x:c r="A152" t="s">
+        <x:v>2368</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153">
+      <x:c r="A153" t="s">
+        <x:v>2369</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154">
+      <x:c r="A154" t="s">
+        <x:v>2370</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155">
+      <x:c r="A155" t="s">
+        <x:v>2371</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11266,7 +13246,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A184"/>
+  <x:dimension ref="A1:A222"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -12195,6 +14175,196 @@
     <x:row r="184">
       <x:c r="A184" t="s">
         <x:v>1970</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185">
+      <x:c r="A185" t="s">
+        <x:v>2372</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186">
+      <x:c r="A186" t="s">
+        <x:v>2373</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187">
+      <x:c r="A187" t="s">
+        <x:v>2374</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188">
+      <x:c r="A188" t="s">
+        <x:v>2375</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189">
+      <x:c r="A189" t="s">
+        <x:v>2376</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190">
+      <x:c r="A190" t="s">
+        <x:v>2377</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191">
+      <x:c r="A191" t="s">
+        <x:v>2378</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192">
+      <x:c r="A192" t="s">
+        <x:v>2379</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193">
+      <x:c r="A193" t="s">
+        <x:v>2380</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="194">
+      <x:c r="A194" t="s">
+        <x:v>2381</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195">
+      <x:c r="A195" t="s">
+        <x:v>2382</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="196">
+      <x:c r="A196" t="s">
+        <x:v>2383</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197">
+      <x:c r="A197" t="s">
+        <x:v>2384</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198">
+      <x:c r="A198" t="s">
+        <x:v>2385</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199">
+      <x:c r="A199" t="s">
+        <x:v>2386</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="200">
+      <x:c r="A200" t="s">
+        <x:v>2387</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="201">
+      <x:c r="A201" t="s">
+        <x:v>2388</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="202">
+      <x:c r="A202" t="s">
+        <x:v>2389</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="203">
+      <x:c r="A203" t="s">
+        <x:v>2390</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="204">
+      <x:c r="A204" t="s">
+        <x:v>2391</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="205">
+      <x:c r="A205" t="s">
+        <x:v>2392</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="206">
+      <x:c r="A206" t="s">
+        <x:v>2393</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207">
+      <x:c r="A207" t="s">
+        <x:v>2394</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="208">
+      <x:c r="A208" t="s">
+        <x:v>2395</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="209">
+      <x:c r="A209" t="s">
+        <x:v>2396</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="210">
+      <x:c r="A210" t="s">
+        <x:v>2397</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="211">
+      <x:c r="A211" t="s">
+        <x:v>2398</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="212">
+      <x:c r="A212" t="s">
+        <x:v>2399</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="213">
+      <x:c r="A213" t="s">
+        <x:v>2400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="214">
+      <x:c r="A214" t="s">
+        <x:v>2401</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="215">
+      <x:c r="A215" t="s">
+        <x:v>2402</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="216">
+      <x:c r="A216" t="s">
+        <x:v>2403</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="217">
+      <x:c r="A217" t="s">
+        <x:v>2404</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="218">
+      <x:c r="A218" t="s">
+        <x:v>2405</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="219">
+      <x:c r="A219" t="s">
+        <x:v>2406</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="220">
+      <x:c r="A220" t="s">
+        <x:v>2407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="221">
+      <x:c r="A221" t="s">
+        <x:v>2408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="222">
+      <x:c r="A222" t="s">
+        <x:v>2409</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12211,7 +14381,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A104"/>
+  <x:dimension ref="A1:A142"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -12740,6 +14910,196 @@
     <x:row r="104">
       <x:c r="A104" t="s">
         <x:v>1989</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105">
+      <x:c r="A105" t="s">
+        <x:v>2410</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106">
+      <x:c r="A106" t="s">
+        <x:v>2411</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107">
+      <x:c r="A107" t="s">
+        <x:v>2412</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108">
+      <x:c r="A108" t="s">
+        <x:v>2413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109">
+      <x:c r="A109" t="s">
+        <x:v>2414</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110">
+      <x:c r="A110" t="s">
+        <x:v>2415</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111">
+      <x:c r="A111" t="s">
+        <x:v>2416</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112">
+      <x:c r="A112" t="s">
+        <x:v>2417</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113">
+      <x:c r="A113" t="s">
+        <x:v>2418</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114">
+      <x:c r="A114" t="s">
+        <x:v>2419</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115">
+      <x:c r="A115" t="s">
+        <x:v>2420</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116">
+      <x:c r="A116" t="s">
+        <x:v>2421</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117">
+      <x:c r="A117" t="s">
+        <x:v>2422</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118">
+      <x:c r="A118" t="s">
+        <x:v>2423</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119">
+      <x:c r="A119" t="s">
+        <x:v>2424</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120">
+      <x:c r="A120" t="s">
+        <x:v>2425</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121">
+      <x:c r="A121" t="s">
+        <x:v>2426</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122">
+      <x:c r="A122" t="s">
+        <x:v>2427</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123">
+      <x:c r="A123" t="s">
+        <x:v>2428</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124">
+      <x:c r="A124" t="s">
+        <x:v>2429</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125">
+      <x:c r="A125" t="s">
+        <x:v>2430</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126">
+      <x:c r="A126" t="s">
+        <x:v>2431</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127">
+      <x:c r="A127" t="s">
+        <x:v>2432</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128">
+      <x:c r="A128" t="s">
+        <x:v>2433</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129">
+      <x:c r="A129" t="s">
+        <x:v>2434</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130">
+      <x:c r="A130" t="s">
+        <x:v>2435</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131">
+      <x:c r="A131" t="s">
+        <x:v>2436</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132">
+      <x:c r="A132" t="s">
+        <x:v>2437</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133">
+      <x:c r="A133" t="s">
+        <x:v>2438</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134">
+      <x:c r="A134" t="s">
+        <x:v>2439</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135">
+      <x:c r="A135" t="s">
+        <x:v>2440</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136">
+      <x:c r="A136" t="s">
+        <x:v>2441</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137">
+      <x:c r="A137" t="s">
+        <x:v>2442</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138">
+      <x:c r="A138" t="s">
+        <x:v>2443</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139">
+      <x:c r="A139" t="s">
+        <x:v>2444</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140">
+      <x:c r="A140" t="s">
+        <x:v>2445</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141">
+      <x:c r="A141" t="s">
+        <x:v>2446</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142">
+      <x:c r="A142" t="s">
+        <x:v>2447</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12756,7 +15116,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A124"/>
+  <x:dimension ref="A1:A162"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -13385,6 +15745,196 @@
     <x:row r="124">
       <x:c r="A124" t="s">
         <x:v>2008</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125">
+      <x:c r="A125" t="s">
+        <x:v>2448</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126">
+      <x:c r="A126" t="s">
+        <x:v>2449</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127">
+      <x:c r="A127" t="s">
+        <x:v>2450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128">
+      <x:c r="A128" t="s">
+        <x:v>2451</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129">
+      <x:c r="A129" t="s">
+        <x:v>2452</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130">
+      <x:c r="A130" t="s">
+        <x:v>2453</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131">
+      <x:c r="A131" t="s">
+        <x:v>2454</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132">
+      <x:c r="A132" t="s">
+        <x:v>2455</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133">
+      <x:c r="A133" t="s">
+        <x:v>2456</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134">
+      <x:c r="A134" t="s">
+        <x:v>2457</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135">
+      <x:c r="A135" t="s">
+        <x:v>2458</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136">
+      <x:c r="A136" t="s">
+        <x:v>2459</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137">
+      <x:c r="A137" t="s">
+        <x:v>2460</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138">
+      <x:c r="A138" t="s">
+        <x:v>2461</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139">
+      <x:c r="A139" t="s">
+        <x:v>2462</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140">
+      <x:c r="A140" t="s">
+        <x:v>2463</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141">
+      <x:c r="A141" t="s">
+        <x:v>2464</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142">
+      <x:c r="A142" t="s">
+        <x:v>2465</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143">
+      <x:c r="A143" t="s">
+        <x:v>2466</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144">
+      <x:c r="A144" t="s">
+        <x:v>2467</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145">
+      <x:c r="A145" t="s">
+        <x:v>2468</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146">
+      <x:c r="A146" t="s">
+        <x:v>2469</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147">
+      <x:c r="A147" t="s">
+        <x:v>2470</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148">
+      <x:c r="A148" t="s">
+        <x:v>2471</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149">
+      <x:c r="A149" t="s">
+        <x:v>2472</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150">
+      <x:c r="A150" t="s">
+        <x:v>2473</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151">
+      <x:c r="A151" t="s">
+        <x:v>2474</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152">
+      <x:c r="A152" t="s">
+        <x:v>2475</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153">
+      <x:c r="A153" t="s">
+        <x:v>2476</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154">
+      <x:c r="A154" t="s">
+        <x:v>2477</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155">
+      <x:c r="A155" t="s">
+        <x:v>2478</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156">
+      <x:c r="A156" t="s">
+        <x:v>2479</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157">
+      <x:c r="A157" t="s">
+        <x:v>2480</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158">
+      <x:c r="A158" t="s">
+        <x:v>2481</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159">
+      <x:c r="A159" t="s">
+        <x:v>2482</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160">
+      <x:c r="A160" t="s">
+        <x:v>2483</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161">
+      <x:c r="A161" t="s">
+        <x:v>2484</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162">
+      <x:c r="A162" t="s">
+        <x:v>2485</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13401,7 +15951,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A73"/>
+  <x:dimension ref="A1:A111"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -13775,6 +16325,196 @@
     <x:row r="73">
       <x:c r="A73" t="s">
         <x:v>2027</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c r="A74" t="s">
+        <x:v>2486</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c r="A75" t="s">
+        <x:v>2487</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c r="A76" t="s">
+        <x:v>2488</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c r="A77" t="s">
+        <x:v>2489</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c r="A78" t="s">
+        <x:v>2490</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c r="A79" t="s">
+        <x:v>2491</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c r="A80" t="s">
+        <x:v>2492</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c r="A81" t="s">
+        <x:v>2493</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c r="A82" t="s">
+        <x:v>2494</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c r="A83" t="s">
+        <x:v>2495</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c r="A84" t="s">
+        <x:v>2496</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c r="A85" t="s">
+        <x:v>2497</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c r="A86" t="s">
+        <x:v>2498</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c r="A87" t="s">
+        <x:v>2499</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c r="A88" t="s">
+        <x:v>2500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c r="A89" t="s">
+        <x:v>2501</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c r="A90" t="s">
+        <x:v>2502</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c r="A91" t="s">
+        <x:v>2503</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c r="A92" t="s">
+        <x:v>2504</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c r="A93" t="s">
+        <x:v>2505</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c r="A94" t="s">
+        <x:v>2506</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c r="A95" t="s">
+        <x:v>2507</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c r="A96" t="s">
+        <x:v>2508</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c r="A97" t="s">
+        <x:v>2509</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c r="A98" t="s">
+        <x:v>2510</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c r="A99" t="s">
+        <x:v>2511</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c r="A100" t="s">
+        <x:v>2512</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101">
+      <x:c r="A101" t="s">
+        <x:v>2513</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102">
+      <x:c r="A102" t="s">
+        <x:v>2514</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103">
+      <x:c r="A103" t="s">
+        <x:v>2515</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104">
+      <x:c r="A104" t="s">
+        <x:v>2516</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105">
+      <x:c r="A105" t="s">
+        <x:v>2517</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106">
+      <x:c r="A106" t="s">
+        <x:v>2518</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107">
+      <x:c r="A107" t="s">
+        <x:v>2519</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108">
+      <x:c r="A108" t="s">
+        <x:v>2520</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109">
+      <x:c r="A109" t="s">
+        <x:v>2521</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110">
+      <x:c r="A110" t="s">
+        <x:v>2522</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111">
+      <x:c r="A111" t="s">
+        <x:v>2523</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13791,7 +16531,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A133"/>
+  <x:dimension ref="A1:A171"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -14465,6 +17205,196 @@
     <x:row r="133">
       <x:c r="A133" t="s">
         <x:v>2046</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134">
+      <x:c r="A134" t="s">
+        <x:v>2524</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135">
+      <x:c r="A135" t="s">
+        <x:v>2525</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136">
+      <x:c r="A136" t="s">
+        <x:v>2526</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137">
+      <x:c r="A137" t="s">
+        <x:v>2527</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138">
+      <x:c r="A138" t="s">
+        <x:v>2528</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139">
+      <x:c r="A139" t="s">
+        <x:v>2529</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140">
+      <x:c r="A140" t="s">
+        <x:v>2530</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141">
+      <x:c r="A141" t="s">
+        <x:v>2531</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142">
+      <x:c r="A142" t="s">
+        <x:v>2532</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143">
+      <x:c r="A143" t="s">
+        <x:v>2533</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144">
+      <x:c r="A144" t="s">
+        <x:v>2534</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145">
+      <x:c r="A145" t="s">
+        <x:v>2535</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146">
+      <x:c r="A146" t="s">
+        <x:v>2536</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147">
+      <x:c r="A147" t="s">
+        <x:v>2537</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148">
+      <x:c r="A148" t="s">
+        <x:v>2538</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149">
+      <x:c r="A149" t="s">
+        <x:v>2539</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150">
+      <x:c r="A150" t="s">
+        <x:v>2540</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151">
+      <x:c r="A151" t="s">
+        <x:v>2541</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152">
+      <x:c r="A152" t="s">
+        <x:v>2542</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153">
+      <x:c r="A153" t="s">
+        <x:v>2543</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154">
+      <x:c r="A154" t="s">
+        <x:v>2544</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155">
+      <x:c r="A155" t="s">
+        <x:v>2545</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156">
+      <x:c r="A156" t="s">
+        <x:v>2546</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157">
+      <x:c r="A157" t="s">
+        <x:v>2547</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158">
+      <x:c r="A158" t="s">
+        <x:v>2548</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159">
+      <x:c r="A159" t="s">
+        <x:v>2549</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160">
+      <x:c r="A160" t="s">
+        <x:v>2550</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161">
+      <x:c r="A161" t="s">
+        <x:v>2551</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162">
+      <x:c r="A162" t="s">
+        <x:v>2552</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163">
+      <x:c r="A163" t="s">
+        <x:v>2553</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164">
+      <x:c r="A164" t="s">
+        <x:v>2554</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165">
+      <x:c r="A165" t="s">
+        <x:v>2555</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166">
+      <x:c r="A166" t="s">
+        <x:v>2556</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167">
+      <x:c r="A167" t="s">
+        <x:v>2557</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168">
+      <x:c r="A168" t="s">
+        <x:v>2558</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169">
+      <x:c r="A169" t="s">
+        <x:v>2559</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170">
+      <x:c r="A170" t="s">
+        <x:v>2560</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171">
+      <x:c r="A171" t="s">
+        <x:v>2561</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14524,7 +17454,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A57"/>
+  <x:dimension ref="A1:A87"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -14818,6 +17748,156 @@
     <x:row r="57">
       <x:c r="A57" t="s">
         <x:v>2061</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c r="A58" t="s">
+        <x:v>2562</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c r="A59" t="s">
+        <x:v>2563</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c r="A60" t="s">
+        <x:v>2564</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c r="A61" t="s">
+        <x:v>2565</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c r="A62" t="s">
+        <x:v>2566</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c r="A63" t="s">
+        <x:v>2567</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c r="A64" t="s">
+        <x:v>2568</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c r="A65" t="s">
+        <x:v>2569</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c r="A66" t="s">
+        <x:v>2570</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c r="A67" t="s">
+        <x:v>2571</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c r="A68" t="s">
+        <x:v>2572</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c r="A69" t="s">
+        <x:v>2573</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c r="A70" t="s">
+        <x:v>2574</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c r="A71" t="s">
+        <x:v>2575</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c r="A72" t="s">
+        <x:v>2576</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c r="A73" t="s">
+        <x:v>2577</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c r="A74" t="s">
+        <x:v>2578</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c r="A75" t="s">
+        <x:v>2579</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c r="A76" t="s">
+        <x:v>2580</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c r="A77" t="s">
+        <x:v>2581</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c r="A78" t="s">
+        <x:v>2582</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c r="A79" t="s">
+        <x:v>2583</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c r="A80" t="s">
+        <x:v>2584</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c r="A81" t="s">
+        <x:v>2585</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c r="A82" t="s">
+        <x:v>2586</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c r="A83" t="s">
+        <x:v>2587</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c r="A84" t="s">
+        <x:v>2588</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c r="A85" t="s">
+        <x:v>2589</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c r="A86" t="s">
+        <x:v>2590</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c r="A87" t="s">
+        <x:v>2591</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14867,7 +17947,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A175"/>
+  <x:dimension ref="A1:A213"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -15751,6 +18831,196 @@
     <x:row r="175">
       <x:c r="A175" t="s">
         <x:v>1796</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176">
+      <x:c r="A176" t="s">
+        <x:v>2102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177">
+      <x:c r="A177" t="s">
+        <x:v>2103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178">
+      <x:c r="A178" t="s">
+        <x:v>2104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179">
+      <x:c r="A179" t="s">
+        <x:v>2105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180">
+      <x:c r="A180" t="s">
+        <x:v>2106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181">
+      <x:c r="A181" t="s">
+        <x:v>2107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182">
+      <x:c r="A182" t="s">
+        <x:v>2108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183">
+      <x:c r="A183" t="s">
+        <x:v>2109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="184">
+      <x:c r="A184" t="s">
+        <x:v>2110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185">
+      <x:c r="A185" t="s">
+        <x:v>2111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186">
+      <x:c r="A186" t="s">
+        <x:v>2112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187">
+      <x:c r="A187" t="s">
+        <x:v>2113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188">
+      <x:c r="A188" t="s">
+        <x:v>2114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189">
+      <x:c r="A189" t="s">
+        <x:v>2115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190">
+      <x:c r="A190" t="s">
+        <x:v>2116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191">
+      <x:c r="A191" t="s">
+        <x:v>2117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192">
+      <x:c r="A192" t="s">
+        <x:v>2118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193">
+      <x:c r="A193" t="s">
+        <x:v>2119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="194">
+      <x:c r="A194" t="s">
+        <x:v>2120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195">
+      <x:c r="A195" t="s">
+        <x:v>2121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="196">
+      <x:c r="A196" t="s">
+        <x:v>2122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197">
+      <x:c r="A197" t="s">
+        <x:v>2123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198">
+      <x:c r="A198" t="s">
+        <x:v>2124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199">
+      <x:c r="A199" t="s">
+        <x:v>2125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="200">
+      <x:c r="A200" t="s">
+        <x:v>2126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="201">
+      <x:c r="A201" t="s">
+        <x:v>2127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="202">
+      <x:c r="A202" t="s">
+        <x:v>2128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="203">
+      <x:c r="A203" t="s">
+        <x:v>2129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="204">
+      <x:c r="A204" t="s">
+        <x:v>2130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="205">
+      <x:c r="A205" t="s">
+        <x:v>2131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="206">
+      <x:c r="A206" t="s">
+        <x:v>2132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207">
+      <x:c r="A207" t="s">
+        <x:v>2133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="208">
+      <x:c r="A208" t="s">
+        <x:v>2134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="209">
+      <x:c r="A209" t="s">
+        <x:v>2135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="210">
+      <x:c r="A210" t="s">
+        <x:v>2136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="211">
+      <x:c r="A211" t="s">
+        <x:v>2137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="212">
+      <x:c r="A212" t="s">
+        <x:v>2138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="213">
+      <x:c r="A213" t="s">
+        <x:v>2139</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -15767,7 +19037,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A15"/>
+  <x:dimension ref="A1:A21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -15851,6 +19121,36 @@
     <x:row r="15">
       <x:c r="A15" t="s">
         <x:v>1839</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c r="A16" t="s">
+        <x:v>2140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="A17" t="s">
+        <x:v>2141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c r="A18" t="s">
+        <x:v>2142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c r="A19" t="s">
+        <x:v>2143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="A20" t="s">
+        <x:v>2144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="A21" t="s">
+        <x:v>2145</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -15867,7 +19167,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A75"/>
+  <x:dimension ref="A1:A113"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -16251,6 +19551,196 @@
     <x:row r="75">
       <x:c r="A75" t="s">
         <x:v>1858</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c r="A76" t="s">
+        <x:v>2146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c r="A77" t="s">
+        <x:v>2147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c r="A78" t="s">
+        <x:v>2148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c r="A79" t="s">
+        <x:v>2149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c r="A80" t="s">
+        <x:v>2150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c r="A81" t="s">
+        <x:v>2151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c r="A82" t="s">
+        <x:v>2152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c r="A83" t="s">
+        <x:v>2153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c r="A84" t="s">
+        <x:v>2154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c r="A85" t="s">
+        <x:v>2155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c r="A86" t="s">
+        <x:v>2156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c r="A87" t="s">
+        <x:v>2157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c r="A88" t="s">
+        <x:v>2158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c r="A89" t="s">
+        <x:v>2159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c r="A90" t="s">
+        <x:v>2160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c r="A91" t="s">
+        <x:v>2161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c r="A92" t="s">
+        <x:v>2162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c r="A93" t="s">
+        <x:v>2163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c r="A94" t="s">
+        <x:v>2164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c r="A95" t="s">
+        <x:v>2165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c r="A96" t="s">
+        <x:v>2166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c r="A97" t="s">
+        <x:v>2167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c r="A98" t="s">
+        <x:v>2168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c r="A99" t="s">
+        <x:v>2169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c r="A100" t="s">
+        <x:v>2170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101">
+      <x:c r="A101" t="s">
+        <x:v>2171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102">
+      <x:c r="A102" t="s">
+        <x:v>2172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103">
+      <x:c r="A103" t="s">
+        <x:v>2173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104">
+      <x:c r="A104" t="s">
+        <x:v>2174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105">
+      <x:c r="A105" t="s">
+        <x:v>2175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106">
+      <x:c r="A106" t="s">
+        <x:v>2176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107">
+      <x:c r="A107" t="s">
+        <x:v>2177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108">
+      <x:c r="A108" t="s">
+        <x:v>2178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109">
+      <x:c r="A109" t="s">
+        <x:v>2179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110">
+      <x:c r="A110" t="s">
+        <x:v>2180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111">
+      <x:c r="A111" t="s">
+        <x:v>2181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112">
+      <x:c r="A112" t="s">
+        <x:v>2182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113">
+      <x:c r="A113" t="s">
+        <x:v>2183</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -16267,7 +19757,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A229"/>
+  <x:dimension ref="A1:A269"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -17421,6 +20911,206 @@
     <x:row r="229">
       <x:c r="A229" t="s">
         <x:v>1877</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="230">
+      <x:c r="A230" t="s">
+        <x:v>2184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="231">
+      <x:c r="A231" t="s">
+        <x:v>2185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="232">
+      <x:c r="A232" t="s">
+        <x:v>2186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="233">
+      <x:c r="A233" t="s">
+        <x:v>2187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="234">
+      <x:c r="A234" t="s">
+        <x:v>2188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="235">
+      <x:c r="A235" t="s">
+        <x:v>2189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="236">
+      <x:c r="A236" t="s">
+        <x:v>2190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="237">
+      <x:c r="A237" t="s">
+        <x:v>2191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="238">
+      <x:c r="A238" t="s">
+        <x:v>2192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="239">
+      <x:c r="A239" t="s">
+        <x:v>2193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="240">
+      <x:c r="A240" t="s">
+        <x:v>2194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="241">
+      <x:c r="A241" t="s">
+        <x:v>2195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="242">
+      <x:c r="A242" t="s">
+        <x:v>2196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="243">
+      <x:c r="A243" t="s">
+        <x:v>2197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="244">
+      <x:c r="A244" t="s">
+        <x:v>2198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="245">
+      <x:c r="A245" t="s">
+        <x:v>2199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="246">
+      <x:c r="A246" t="s">
+        <x:v>2200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="247">
+      <x:c r="A247" t="s">
+        <x:v>2201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="248">
+      <x:c r="A248" t="s">
+        <x:v>2202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="249">
+      <x:c r="A249" t="s">
+        <x:v>2203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="250">
+      <x:c r="A250" t="s">
+        <x:v>2204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="251">
+      <x:c r="A251" t="s">
+        <x:v>2205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="252">
+      <x:c r="A252" t="s">
+        <x:v>2206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="253">
+      <x:c r="A253" t="s">
+        <x:v>2207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="254">
+      <x:c r="A254" t="s">
+        <x:v>2208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="255">
+      <x:c r="A255" t="s">
+        <x:v>2209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="256">
+      <x:c r="A256" t="s">
+        <x:v>2210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="257">
+      <x:c r="A257" t="s">
+        <x:v>2211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="258">
+      <x:c r="A258" t="s">
+        <x:v>2212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="259">
+      <x:c r="A259" t="s">
+        <x:v>2213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="260">
+      <x:c r="A260" t="s">
+        <x:v>2214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="261">
+      <x:c r="A261" t="s">
+        <x:v>2215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="262">
+      <x:c r="A262" t="s">
+        <x:v>2216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="263">
+      <x:c r="A263" t="s">
+        <x:v>2217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="264">
+      <x:c r="A264" t="s">
+        <x:v>2218</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="265">
+      <x:c r="A265" t="s">
+        <x:v>2219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="266">
+      <x:c r="A266" t="s">
+        <x:v>2220</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="267">
+      <x:c r="A267" t="s">
+        <x:v>2221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="268">
+      <x:c r="A268" t="s">
+        <x:v>2222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="269">
+      <x:c r="A269" t="s">
+        <x:v>2223</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -17437,7 +21127,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A72"/>
+  <x:dimension ref="A1:A110"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -17806,6 +21496,196 @@
     <x:row r="72">
       <x:c r="A72" t="s">
         <x:v>1896</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c r="A73" t="s">
+        <x:v>2224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c r="A74" t="s">
+        <x:v>2225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c r="A75" t="s">
+        <x:v>2226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c r="A76" t="s">
+        <x:v>2227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c r="A77" t="s">
+        <x:v>2228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c r="A78" t="s">
+        <x:v>2229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c r="A79" t="s">
+        <x:v>2230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c r="A80" t="s">
+        <x:v>2231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c r="A81" t="s">
+        <x:v>2232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c r="A82" t="s">
+        <x:v>2233</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c r="A83" t="s">
+        <x:v>2234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c r="A84" t="s">
+        <x:v>2235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c r="A85" t="s">
+        <x:v>2236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c r="A86" t="s">
+        <x:v>2237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c r="A87" t="s">
+        <x:v>2238</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c r="A88" t="s">
+        <x:v>2239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c r="A89" t="s">
+        <x:v>2240</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c r="A90" t="s">
+        <x:v>2241</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c r="A91" t="s">
+        <x:v>2242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c r="A92" t="s">
+        <x:v>2243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c r="A93" t="s">
+        <x:v>2244</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c r="A94" t="s">
+        <x:v>2245</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c r="A95" t="s">
+        <x:v>2246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c r="A96" t="s">
+        <x:v>2247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c r="A97" t="s">
+        <x:v>2248</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c r="A98" t="s">
+        <x:v>2249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c r="A99" t="s">
+        <x:v>2250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c r="A100" t="s">
+        <x:v>2251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101">
+      <x:c r="A101" t="s">
+        <x:v>2252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102">
+      <x:c r="A102" t="s">
+        <x:v>2253</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103">
+      <x:c r="A103" t="s">
+        <x:v>2254</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104">
+      <x:c r="A104" t="s">
+        <x:v>2255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105">
+      <x:c r="A105" t="s">
+        <x:v>2256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106">
+      <x:c r="A106" t="s">
+        <x:v>2257</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107">
+      <x:c r="A107" t="s">
+        <x:v>2258</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108">
+      <x:c r="A108" t="s">
+        <x:v>2259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109">
+      <x:c r="A109" t="s">
+        <x:v>2260</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110">
+      <x:c r="A110" t="s">
+        <x:v>2261</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -17822,7 +21702,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A95"/>
+  <x:dimension ref="A1:A133"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -18306,6 +22186,196 @@
     <x:row r="95">
       <x:c r="A95" t="s">
         <x:v>1915</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c r="A96" t="s">
+        <x:v>2262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c r="A97" t="s">
+        <x:v>2263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c r="A98" t="s">
+        <x:v>2264</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c r="A99" t="s">
+        <x:v>2265</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c r="A100" t="s">
+        <x:v>2266</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101">
+      <x:c r="A101" t="s">
+        <x:v>2267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102">
+      <x:c r="A102" t="s">
+        <x:v>2268</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103">
+      <x:c r="A103" t="s">
+        <x:v>2269</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104">
+      <x:c r="A104" t="s">
+        <x:v>2270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105">
+      <x:c r="A105" t="s">
+        <x:v>2271</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106">
+      <x:c r="A106" t="s">
+        <x:v>2272</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107">
+      <x:c r="A107" t="s">
+        <x:v>2273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108">
+      <x:c r="A108" t="s">
+        <x:v>2274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109">
+      <x:c r="A109" t="s">
+        <x:v>2275</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110">
+      <x:c r="A110" t="s">
+        <x:v>2276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111">
+      <x:c r="A111" t="s">
+        <x:v>2277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112">
+      <x:c r="A112" t="s">
+        <x:v>2278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113">
+      <x:c r="A113" t="s">
+        <x:v>2279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114">
+      <x:c r="A114" t="s">
+        <x:v>2280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115">
+      <x:c r="A115" t="s">
+        <x:v>2281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116">
+      <x:c r="A116" t="s">
+        <x:v>2282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117">
+      <x:c r="A117" t="s">
+        <x:v>2283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118">
+      <x:c r="A118" t="s">
+        <x:v>2284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119">
+      <x:c r="A119" t="s">
+        <x:v>2285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120">
+      <x:c r="A120" t="s">
+        <x:v>2286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121">
+      <x:c r="A121" t="s">
+        <x:v>2287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122">
+      <x:c r="A122" t="s">
+        <x:v>2288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123">
+      <x:c r="A123" t="s">
+        <x:v>2289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124">
+      <x:c r="A124" t="s">
+        <x:v>2290</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125">
+      <x:c r="A125" t="s">
+        <x:v>2291</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126">
+      <x:c r="A126" t="s">
+        <x:v>2292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127">
+      <x:c r="A127" t="s">
+        <x:v>2293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128">
+      <x:c r="A128" t="s">
+        <x:v>2294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129">
+      <x:c r="A129" t="s">
+        <x:v>2295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130">
+      <x:c r="A130" t="s">
+        <x:v>2296</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131">
+      <x:c r="A131" t="s">
+        <x:v>2297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132">
+      <x:c r="A132" t="s">
+        <x:v>2298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133">
+      <x:c r="A133" t="s">
+        <x:v>2299</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -18355,7 +22425,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A68"/>
+  <x:dimension ref="A1:A102"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A3" sqref="A3 A3:A3"/>
@@ -18706,6 +22776,176 @@
         <x:v>1932</x:v>
       </x:c>
     </x:row>
+    <x:row r="69">
+      <x:c r="A69" t="s">
+        <x:v>2300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c r="A70" t="s">
+        <x:v>2301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c r="A71" t="s">
+        <x:v>2302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c r="A72" t="s">
+        <x:v>2303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c r="A73" t="s">
+        <x:v>2304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c r="A74" t="s">
+        <x:v>2305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c r="A75" t="s">
+        <x:v>2306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c r="A76" t="s">
+        <x:v>2307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c r="A77" t="s">
+        <x:v>2308</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c r="A78" t="s">
+        <x:v>2309</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c r="A79" t="s">
+        <x:v>2310</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c r="A80" t="s">
+        <x:v>2311</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c r="A81" t="s">
+        <x:v>2312</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c r="A82" t="s">
+        <x:v>2313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c r="A83" t="s">
+        <x:v>2314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c r="A84" t="s">
+        <x:v>2315</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c r="A85" t="s">
+        <x:v>2316</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c r="A86" t="s">
+        <x:v>2317</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c r="A87" t="s">
+        <x:v>2318</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c r="A88" t="s">
+        <x:v>2319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c r="A89" t="s">
+        <x:v>2320</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c r="A90" t="s">
+        <x:v>2321</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c r="A91" t="s">
+        <x:v>2322</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c r="A92" t="s">
+        <x:v>2323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c r="A93" t="s">
+        <x:v>2324</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c r="A94" t="s">
+        <x:v>2325</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c r="A95" t="s">
+        <x:v>2326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c r="A96" t="s">
+        <x:v>2327</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c r="A97" t="s">
+        <x:v>2328</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c r="A98" t="s">
+        <x:v>2329</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c r="A99" t="s">
+        <x:v>2330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c r="A100" t="s">
+        <x:v>2331</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101">
+      <x:c r="A101" t="s">
+        <x:v>2332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102">
+      <x:c r="A102" t="s">
+        <x:v>2333</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
